--- a/timetabling_GA/results/HK1_CT02/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK1_CT02/TKB_Semester_Schedule.xlsx
@@ -22,7 +22,6 @@
     <sheet name="Tuan_13" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Tuan_14" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Tuan_15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Tuan_16" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +31,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,11 +68,6 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Times New Roman"/>
-      <i val="1"/>
-      <sz val="11"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -90,18 +84,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00BDD7EE"/>
         <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -122,6 +116,39 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -144,6 +171,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -156,10 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -525,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,106 +647,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>08/09</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09/09</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11/09</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12/09</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>13/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -731,7 +860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,106 +955,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>10/11</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>11/11</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>12/11</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>13/11</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>14/11</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>15/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -937,7 +1168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,106 +1263,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>17/11</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>18/11</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>19/11</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>20/11</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>21/11</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>22/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1143,7 +1476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1238,106 +1571,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>24/11</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>25/11</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>26/11</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>27/11</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>28/11</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>29/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1349,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1444,106 +1879,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>01/12</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>02/12</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>03/12</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>04/12</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>05/12</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>06/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1555,7 +2092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1650,106 +2187,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>08/12</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>09/12</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>10/12</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>11/12</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>12/12</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>13/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1761,7 +2400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1856,223 +2495,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>15/12</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>16/12</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>17/12</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>18/12</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>19/12</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>20/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM CÔNG NGHỆ PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu III, Đại học Cần Thơ - 01 Lý Tự Trọng, TP. Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="10" customHeight="1"/>
-    <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>THỜI KHÓA BIỂU TUẦN 16</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="35" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Slot Thời Gian</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Lớp</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>SL SV</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 2</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 3</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 4</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 5</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 6</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>Không có lịch học trong tuần này.</t>
-        </is>
-      </c>
-      <c r="B8" s="11" t="n"/>
-      <c r="C8" s="11" t="n"/>
-      <c r="D8" s="11" t="n"/>
-      <c r="E8" s="11" t="n"/>
-      <c r="F8" s="11" t="n"/>
-      <c r="G8" s="11" t="n"/>
-      <c r="H8" s="11" t="n"/>
-      <c r="I8" s="11" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A8:I8"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2084,7 +2708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2179,106 +2803,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>15/09</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>16/09</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>17/09</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>18/09</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>19/09</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>20/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2290,7 +3016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2385,106 +3111,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>22/09</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>23/09</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>24/09</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>25/09</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>26/09</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>27/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2496,7 +3324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2591,106 +3419,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>29/09</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>30/09</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>01/10</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>02/10</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>03/10</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>04/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2702,7 +3632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2797,106 +3727,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>06/10</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>07/10</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>08/10</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>09/10</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>10/10</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>11/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2908,7 +3940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,106 +4035,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>13/10</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>14/10</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>15/10</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>16/10</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>17/10</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>18/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3114,7 +4248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3209,106 +4343,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>20/10</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>22/10</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>23/10</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>24/10</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>25/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3320,7 +4556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3415,106 +4651,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>27/10</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>28/10</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>29/10</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>30/10</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>31/10</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>01/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3526,7 +4864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3621,106 +4959,208 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>03/11</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>04/11</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>05/11</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>06/11</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>07/11</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>08/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="C10" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
 Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>CL03</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>CL03</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
+      <c r="C12" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB04
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/timetabling_GA/results/HK1_CT02/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK1_CT02/TKB_Semester_Schedule.xlsx
@@ -687,75 +687,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -763,43 +783,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -807,48 +840,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -995,75 +999,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -1071,43 +1095,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -1115,48 +1152,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1303,75 +1311,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -1379,43 +1407,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -1423,48 +1464,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1611,75 +1623,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -1687,43 +1719,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -1731,48 +1776,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1919,75 +1935,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -1995,43 +2031,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -2039,48 +2088,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2227,75 +2247,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -2303,43 +2343,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -2347,48 +2400,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2535,75 +2559,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -2611,43 +2655,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -2655,48 +2712,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2843,75 +2871,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -2919,43 +2967,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -2963,48 +3024,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3151,75 +3183,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -3227,43 +3279,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -3271,48 +3336,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3459,75 +3495,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -3535,43 +3591,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -3579,48 +3648,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3767,75 +3807,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -3843,43 +3903,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -3887,48 +3960,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4075,75 +4119,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -4151,43 +4215,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -4195,48 +4272,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4383,75 +4431,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -4459,43 +4527,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -4503,48 +4584,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4691,75 +4743,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -4767,43 +4839,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -4811,48 +4896,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4999,75 +5055,95 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>S2
-(09:00-11:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="10" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
@@ -5075,43 +5151,56 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
@@ -5119,48 +5208,19 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/timetabling_GA/results/HK1_CT02/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK1_CT02/TKB_Semester_Schedule.xlsx
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -552,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,46 +688,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -734,62 +735,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -797,62 +779,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -864,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,46 +1204,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -1046,62 +1251,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1109,62 +1295,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1176,7 +1585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1311,46 +1720,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -1358,62 +1767,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1421,62 +1811,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1488,7 +2101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1623,46 +2236,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -1670,62 +2283,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1733,62 +2327,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1800,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1935,46 +2752,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -1982,62 +2799,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2045,62 +2843,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2112,7 +3133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,46 +3268,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -2294,62 +3315,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2357,62 +3359,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2424,7 +3649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,46 +3784,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -2606,62 +3831,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2669,62 +3875,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2736,7 +4165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2871,46 +4300,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -2918,62 +4347,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2981,62 +4391,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3048,7 +4681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3183,46 +4816,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -3230,62 +4863,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -3293,62 +4907,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3360,7 +5197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3495,46 +5332,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -3542,62 +5379,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -3605,62 +5423,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3672,7 +5713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3807,46 +5848,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -3854,62 +5895,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -3917,62 +5939,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3984,7 +6229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4119,46 +6364,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -4166,62 +6411,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4229,62 +6455,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4296,7 +6745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4431,46 +6880,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -4478,62 +6927,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4541,62 +6971,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4608,7 +7261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4743,46 +7396,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -4790,62 +7443,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4853,62 +7487,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4920,7 +7777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5055,46 +7912,46 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>S1
+(07:00-09:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
@@ -5102,62 +7959,43 @@
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>Thiết kế Web
+          <t>Mạng máy tính
 (Thực hành)
 Phòng: LAB01
 GV: Trần Thị B</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
 GV: Phạm Văn D</t>
         </is>
       </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="12" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -5165,62 +8003,285 @@
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="G12" s="10" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr"/>
+      <c r="G14" s="8" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL04</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL03</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr"/>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="12" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL09</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R101
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL08</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R102
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/timetabling_GA/results/HK1_CT02/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK1_CT02/TKB_Semester_Schedule.xlsx
@@ -183,11 +183,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,23 +688,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -712,39 +713,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -753,130 +753,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -884,180 +893,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1069,7 +1048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,23 +1183,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -1228,39 +1208,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -1269,130 +1248,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -1400,180 +1388,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1585,7 +1543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1720,23 +1678,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -1744,39 +1703,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -1785,130 +1743,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -1916,180 +1883,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2101,7 +2038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2236,23 +2173,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -2260,39 +2198,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -2301,130 +2238,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -2432,180 +2378,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2617,7 +2533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2752,23 +2668,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -2776,39 +2693,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -2817,130 +2733,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -2948,180 +2873,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3133,7 +3028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3268,23 +3163,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -3292,39 +3188,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -3333,130 +3228,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -3464,180 +3368,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3649,7 +3523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3784,23 +3658,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -3808,39 +3683,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -3849,130 +3723,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -3980,180 +3863,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4165,7 +4018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4300,23 +4153,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -4324,39 +4178,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -4365,130 +4218,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -4496,180 +4358,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4681,7 +4513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4816,23 +4648,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -4840,39 +4673,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -4881,130 +4713,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -5012,180 +4853,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5197,7 +5008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5332,23 +5143,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -5356,39 +5168,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -5397,130 +5208,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -5528,180 +5348,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5713,7 +5503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5848,23 +5638,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -5872,39 +5663,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -5913,130 +5703,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -6044,180 +5843,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6229,7 +5998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6364,23 +6133,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -6388,39 +6158,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -6429,130 +6198,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -6560,180 +6338,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6745,7 +6493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6880,23 +6628,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -6904,39 +6653,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -6945,130 +6693,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -7076,180 +6833,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7261,7 +6988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7396,23 +7123,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -7420,39 +7148,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -7461,130 +7188,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -7592,180 +7328,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7777,7 +7483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7912,23 +7618,24 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>S1
-(07:00-09:00)</t>
+          <t>S2
+(09:00-11:00)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
@@ -7936,39 +7643,38 @@
 GV: Phạm Văn D</t>
         </is>
       </c>
-      <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R103
 GV: Trần Thị B</t>
         </is>
       </c>
       <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL04</t>
@@ -7977,130 +7683,139 @@
       <c r="C11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB02
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="12" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>C1
-(13:00-15:00)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB03
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Trần Thị B</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Lý thuyết)
-Phòng: R103
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr"/>
+Phòng: R101
+GV: Phạm Văn D</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB03
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="H15" s="8" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr"/>
     </row>
@@ -8108,180 +7823,150 @@
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="9" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>Thiết kế Web
 (Thực hành)
 Phòng: LAB02
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+GV: Trần Thị B</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
       <c r="G16" s="8" t="inlineStr"/>
       <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="12" t="n"/>
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Lý thuyết)
+Phòng: R104
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="E17" s="8" t="inlineStr"/>
       <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R101
-GV: Phạm Văn D</t>
-        </is>
-      </c>
+      <c r="G17" s="8" t="inlineStr"/>
       <c r="H17" s="8" t="inlineStr"/>
       <c r="I17" s="8" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A18" s="12" t="n"/>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C18" s="8" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr">
+        <is>
+          <t>Thiết kế Web
+(Thực hành)
+Phòng: LAB01
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R104
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Thực hành)
-Phòng: LAB01
-GV: Trần Thị B</t>
-        </is>
-      </c>
+      <c r="I18" s="8" t="inlineStr"/>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="10" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Thực hành)
+Phòng: LAB01
+GV: Phạm Văn D</t>
+        </is>
+      </c>
       <c r="G19" s="8" t="inlineStr"/>
       <c r="H19" s="8" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr">
         <is>
           <t>Mạng máy tính
 (Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
+Phòng: R104
+GV: Trần Thị B</t>
         </is>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="12" t="n"/>
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>CL09</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Lý thuyết)
-Phòng: R101
-GV: Trần Thị B</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="8" t="inlineStr"/>
       <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Mạng máy tính
+(Lý thuyết)
+Phòng: R102
+GV: Trần Thị B</t>
+        </is>
+      </c>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>CL08</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>Thiết kế Web
-(Lý thuyết)
-Phòng: R102
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Mạng máy tính
-(Thực hành)
-Phòng: LAB01
-GV: Phạm Văn D</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
